--- a/Referencias.xlsx
+++ b/Referencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/a_martin_us_es/Documents/OTROS/MASTER/TFM/2025-2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{D8A267B1-D50E-4DCC-8FD0-CE0FBA1A8EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498EECC9-DE73-40CE-B62C-155B77A60B4D}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{D8A267B1-D50E-4DCC-8FD0-CE0FBA1A8EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{520A692D-E413-449C-8D64-F864B38B9527}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{60D5F399-C16E-45BC-9DC5-EEA9533FE8C3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{60D5F399-C16E-45BC-9DC5-EEA9533FE8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>Ticker</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Subsector</t>
   </si>
   <si>
-    <t>Cosumo defensivo</t>
-  </si>
-  <si>
     <t>Alimentos Envasados</t>
   </si>
   <si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>NKE</t>
+  </si>
+  <si>
+    <t>ELV</t>
+  </si>
+  <si>
+    <t>Elvance Health</t>
+  </si>
+  <si>
+    <t>Consumo defensivo</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,22 +759,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADAD06E-3DEF-4C6F-972F-5C2950A67B1F}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.3046875" customWidth="1"/>
+    <col min="4" max="4" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.69140625" customWidth="1"/>
     <col min="6" max="7" width="11" customWidth="1"/>
-    <col min="8" max="10" width="15.33203125" customWidth="1"/>
+    <col min="8" max="10" width="15.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -828,7 +830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -836,10 +838,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="7">
         <v>21.9</v>
@@ -864,7 +866,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -872,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>27.8</v>
@@ -900,7 +902,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -908,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6">
         <v>26.2</v>
@@ -936,7 +938,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -944,10 +946,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6">
         <v>25.8</v>
@@ -972,18 +974,18 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="6">
         <v>21.5</v>
@@ -1008,7 +1010,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1016,10 +1018,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="6">
         <v>24.8</v>
@@ -1044,18 +1046,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="6">
         <v>22.2</v>
@@ -1080,18 +1082,18 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="6">
         <v>30.4</v>
@@ -1116,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1124,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6">
         <v>34</v>
@@ -1152,18 +1154,18 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="6">
         <v>24.2</v>
@@ -1188,18 +1190,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="6">
         <v>25.5</v>
@@ -1224,18 +1226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E13" s="6">
         <v>16</v>
@@ -1260,18 +1262,18 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E14" s="6">
         <v>12.2</v>
@@ -1296,18 +1298,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E15" s="6">
         <v>20.3</v>
@@ -1332,18 +1334,18 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E16" s="6">
         <v>20.3</v>
@@ -1368,18 +1370,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E17" s="6">
         <v>32.299999999999997</v>
@@ -1404,18 +1406,18 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E18" s="6">
         <v>25.9</v>
@@ -1440,18 +1442,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="10">
         <v>12</v>
@@ -1470,24 +1472,24 @@
         <v>6.3</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E20" s="6">
         <v>17.100000000000001</v>
@@ -1512,18 +1514,18 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E21" s="6">
         <v>20.6</v>
@@ -1548,18 +1550,18 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E22" s="6">
         <v>18</v>
@@ -1584,18 +1586,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E23" s="6">
         <v>20</v>
@@ -1620,18 +1622,18 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E24" s="6">
         <v>19.2</v>
@@ -1656,20 +1658,43 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" ref="I25" si="1">G25+H25</f>
+        <v>2.5599999999999996</v>
+      </c>
+      <c r="J25" s="6">
+        <v>5.16</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1682,7 +1707,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1695,7 +1720,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1708,7 +1733,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1721,7 +1746,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1734,7 +1759,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1747,7 +1772,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -1756,7 +1781,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -1765,7 +1790,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -1774,7 +1799,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -1783,7 +1808,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -1792,7 +1817,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -1801,7 +1826,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -1810,7 +1835,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -1819,7 +1844,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -1828,7 +1853,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -1837,7 +1862,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -1846,7 +1871,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -1855,7 +1880,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -1864,7 +1889,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -1873,7 +1898,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -1882,7 +1907,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -1891,7 +1916,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -1900,7 +1925,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
@@ -1909,7 +1934,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -1918,7 +1943,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -1927,7 +1952,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -1936,7 +1961,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -1945,7 +1970,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -1954,7 +1979,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -1963,7 +1988,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -1972,7 +1997,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -1981,7 +2006,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -1990,7 +2015,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -1999,7 +2024,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -2008,7 +2033,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
@@ -2017,7 +2042,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -2026,7 +2051,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -2035,7 +2060,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
@@ -2044,7 +2069,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
@@ -2053,7 +2078,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -2062,7 +2087,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -2071,7 +2096,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
@@ -2080,7 +2105,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -2089,7 +2114,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -2098,7 +2123,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -2107,7 +2132,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -2116,7 +2141,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -2125,7 +2150,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -2134,7 +2159,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -2143,7 +2168,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
@@ -2152,7 +2177,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -2161,7 +2186,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
@@ -2170,7 +2195,7 @@
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
@@ -2179,7 +2204,7 @@
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -2188,7 +2213,7 @@
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
@@ -2197,7 +2222,7 @@
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -2206,7 +2231,7 @@
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -2215,7 +2240,7 @@
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
@@ -2224,7 +2249,7 @@
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
@@ -2233,7 +2258,7 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
@@ -2242,7 +2267,7 @@
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -2251,7 +2276,7 @@
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
@@ -2260,7 +2285,7 @@
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
@@ -2269,7 +2294,7 @@
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
@@ -2278,7 +2303,7 @@
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
@@ -2287,7 +2312,7 @@
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
@@ -2296,7 +2321,7 @@
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -2305,7 +2330,7 @@
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
@@ -2314,7 +2339,7 @@
       <c r="J94" s="13"/>
       <c r="K94" s="13"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
@@ -2323,7 +2348,7 @@
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -2332,7 +2357,7 @@
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
@@ -2341,7 +2366,7 @@
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
@@ -2350,7 +2375,7 @@
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -2359,7 +2384,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
@@ -2368,7 +2393,7 @@
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
@@ -2377,7 +2402,7 @@
       <c r="J101" s="13"/>
       <c r="K101" s="13"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
@@ -2386,7 +2411,7 @@
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
@@ -2395,7 +2420,7 @@
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
@@ -2404,7 +2429,7 @@
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
@@ -2413,7 +2438,7 @@
       <c r="J105" s="13"/>
       <c r="K105" s="13"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
@@ -2422,7 +2447,7 @@
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
@@ -2431,7 +2456,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
@@ -2440,7 +2465,7 @@
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
@@ -2449,7 +2474,7 @@
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
@@ -2458,7 +2483,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
